--- a/Symal/27264/res_INF-HSEQ CC0375-ITP-011 Drainage (Cast In-situ Structures)  Checklist - Rev.7.xlsx
+++ b/Symal/27264/res_INF-HSEQ CC0375-ITP-011 Drainage (Cast In-situ Structures)  Checklist - Rev.7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Symal\27264\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8708FBE-366B-49B9-9E91-C0DA843796B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE41ADD-BEC9-4353-B746-37E29F81DED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="2280" windowWidth="28965" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9195" yWindow="1830" windowWidth="28965" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="143">
   <si>
     <t>type</t>
   </si>
@@ -67,75 +67,15 @@
     <t>checklist</t>
   </si>
   <si>
-    <t xml:space="preserve">Ref docs - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acceptance Criteria - </t>
-  </si>
-  <si>
     <t>section</t>
   </si>
   <si>
     <t>1.0 Preliminaries</t>
   </si>
   <si>
-    <t xml:space="preserve">Key - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UGL Key - </t>
-  </si>
-  <si>
     <t>checkpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHL Key - </t>
-  </si>
-  <si>
     <t>INF-HSEQ CC0375-ITP-011 Drainage (Cast In-situ Structures) Checklist - Rev.7</t>
   </si>
   <si>
@@ -145,40 +85,370 @@
     <t>3.0 Cast in-situ structures</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9 - </t>
-  </si>
-  <si>
     <t>4.0 Finishing Works and Backfilling</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6 - </t>
-  </si>
-  <si>
     <t>5.0 Conformance check</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2 - </t>
+    <t>1.1 - Documentation</t>
+  </si>
+  <si>
+    <t>Ref docs - Issued drawings / Site copy drawings</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Check that you have the latest site and engineering drawings BEFORE starting each task/set of tasks.</t>
+  </si>
+  <si>
+    <t>Key - S</t>
+  </si>
+  <si>
+    <t>UGL Key - S</t>
+  </si>
+  <si>
+    <t>SHL Key - S</t>
+  </si>
+  <si>
+    <t>1.2 - Lot Traceability</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0161 Quality [Cl 7.3]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Prepare a lot map for traceability of the work area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks / record (eg. test frequency, reports, certificates, checklist etc) - </t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>Lot map</t>
+  </si>
+  <si>
+    <t>1.3 - Set out</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 1351 Stormwater Drainage [Cl 2.2]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Setout pits to the location and levels on the drawings. This shall be presented for inspection by the superintendent.</t>
+  </si>
+  <si>
+    <t>2.1 - Excavation</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 1351 Stormwater Drainage [Cl 2.3]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Excavate to the depth nominated on the drawings and remove any loose material at the base.</t>
+  </si>
+  <si>
+    <t>○ Ensure excavation is carried out to a width which will not impede external formwork.</t>
+  </si>
+  <si>
+    <t>2.2 - Unsuitable Material</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Any Unsuitable Material to be removed to the depth as directed by the Superintendent</t>
+  </si>
+  <si>
+    <t>HOLD POINT</t>
+  </si>
+  <si>
+    <t>Key - H</t>
+  </si>
+  <si>
+    <t>UGL Key - H</t>
+  </si>
+  <si>
+    <t>SHL Key - H</t>
+  </si>
+  <si>
+    <t>AUTHORITY HOLDPOINT</t>
+  </si>
+  <si>
+    <t>holdpoint</t>
+  </si>
+  <si>
+    <t>2.3 - Compaction - Foundation</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 1351 Stormwater Drainage [Cl 2.5]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Foundation (including any unsuitable replacement) to be compacted to a relative compaction of 95% to a depth of 150mm below foundation level</t>
+  </si>
+  <si>
+    <t>Test reports</t>
+  </si>
+  <si>
+    <t>2.4 - Foundation Inspection</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 1354 Stormwater Drainage Structures [Cl 3.6]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Foundation to be inspected by the Superintendent prior to placing blinding</t>
+  </si>
+  <si>
+    <t>2.5 - Blinding</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Blinding (15MPa) for Reinforced Concrete Bases to be a 50mm thick mass concrete layer.</t>
+  </si>
+  <si>
+    <t>○ Unreinforced bases can be poured directly on the earth</t>
+  </si>
+  <si>
+    <t>3.1 - Formwork (Base)</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0319 Minor Concrete Works [Cl 4.3], Drawings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance Criteria - Formwork installed as per drawings and adequately supported. </t>
+  </si>
+  <si>
+    <t>Before Placing Concrete</t>
+  </si>
+  <si>
+    <t>○ Completed formwork to be inspected by the Superintendent prior to concrete placement</t>
+  </si>
+  <si>
+    <t>Pre-pour inspection</t>
+  </si>
+  <si>
+    <t>3.2 - Steel reinforcement (Base)</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0319 Minor Concrete Works [Cl 4.5], Drawings</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Reinforcement installed as per drawings, ensuring sufficient lap length and cover is achieved on all bars.</t>
+  </si>
+  <si>
+    <t>○ Concrete pre-pour inspection complete.</t>
+  </si>
+  <si>
+    <t>3.3 - Formwork (Walls)</t>
+  </si>
+  <si>
+    <t>○ Completed formwork to be inspected by the Superintendent prior to concrete placement.</t>
+  </si>
+  <si>
+    <t>3.4 - Steel reinforcement (Walls)</t>
+  </si>
+  <si>
+    <t>3.5 - Pit &amp; Pipe Connections</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 1354 Stormwater Drainage Structures [Cl 3.3]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Inlet and outlet pipes to be integrally cast into pit walls and the joint waterproofed as per design requirements.</t>
+  </si>
+  <si>
+    <t>3.6 - Concrete supply and placement</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0319 Minor Concrete Works [Cl 4.8, 4.9, 4.10, 4.11], Drawings</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Concrete strength of cast in-situ units shall be min. Grade N32 or as otherwise stated on drawings.</t>
+  </si>
+  <si>
+    <t>○ Ensure the temperature of freshly mixed concrete is maintained in between 5°C and 35°C. Ensure elapsed time between batching and discharge of the mix complies with the below table.</t>
+  </si>
+  <si>
+    <t>○ Concrete placed in layers ≤ 300mm thick and adequately vibrated avoiding over-vibration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">○ Design slump shall not exceed 75mm unless shown otherwise on the drawings. </t>
+  </si>
+  <si>
+    <t>– – – – – – – – – – – – – – – –</t>
+  </si>
+  <si>
+    <t>Concrete temperature at time of discharge (C) || Maximum elapsed time (hours)</t>
+  </si>
+  <si>
+    <t>10 - 24 || 2.00</t>
+  </si>
+  <si>
+    <t>24 - 27 || 1.50</t>
+  </si>
+  <si>
+    <t>27 - 30 || 1.00</t>
+  </si>
+  <si>
+    <t>30 - 32 || 0.75</t>
+  </si>
+  <si>
+    <t>Delivery dockets</t>
+  </si>
+  <si>
+    <t>3.7 - Concrete sampling</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0319 Minor Concrete Works [Cl 4.2]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - The nominal rate of sampling shall be taken:</t>
+  </si>
+  <si>
+    <t>(b) Slump: One per batch of concrete</t>
+  </si>
+  <si>
+    <t>(a) Compressive strength: One set per pour or as otherwise directed by the Superintendent;</t>
+  </si>
+  <si>
+    <t>Concrete pour record</t>
+  </si>
+  <si>
+    <t>3.8 - Concrete testing</t>
+  </si>
+  <si>
+    <t>Ref docs - Drawings</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Average compressive strength at 28 days meets minimum design requirements</t>
+  </si>
+  <si>
+    <t>Testing to be in a NATA accredited test facility</t>
+  </si>
+  <si>
+    <t>○ Slump within tolerances specified in AS 1379</t>
+  </si>
+  <si>
+    <t>Table 5.1 Permissible Tolerance on Slump</t>
+  </si>
+  <si>
+    <t>Specified slump, mm || Tolerance, mm</t>
+  </si>
+  <si>
+    <t>&lt;60 || ±10</t>
+  </si>
+  <si>
+    <t>≥60 ≤80 || ±15</t>
+  </si>
+  <si>
+    <t>&gt;80 ≤110 || ±20</t>
+  </si>
+  <si>
+    <t>&gt;110 ≤150 || ±30</t>
+  </si>
+  <si>
+    <t>&gt;150 || ±40</t>
+  </si>
+  <si>
+    <t>3.9 - Curing</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0319 Minor Concrete Works [Cl 4.13]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - From completion of finishing; cure continuously with either curing compound, wet curing or form retention until 15MPa is achieved unless directed otherwise by the superintendent</t>
+  </si>
+  <si>
+    <t>4.1 - Access Covers &amp; Grates</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Access covers, grates and frames to be installed as per AS 3996</t>
+  </si>
+  <si>
+    <t>4.2 - Step Irons</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Pits deeper than 600 to be fitted with galvanised plastic-coated step irons as per AS1657</t>
+  </si>
+  <si>
+    <t>4.3 - Pit Jointing</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 1354 Stormwater Drainage Structures [Cl 3.5]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Provide a 10mm isolation joint in between precast pits and any abutting concrete pavement, kerb and gutter or concrete structure</t>
+  </si>
+  <si>
+    <t>4.4 - Structure Backfill</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 1354 Stormwater Drainage Structures [Cl 3.7], Spec. 1112 Earthworks [Cl 4.10]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Backfill shall not commence until the compressive strength of concrete has reached at least 15MPa unless otherwise approved by the superintendent. (Wingwalls shall have no backfill placed until 21 days after casting)</t>
+  </si>
+  <si>
+    <t>○ Drainage Structures to be backfilled in 150mm thick layers for a horizontal distance of one third of the height of the structure.</t>
+  </si>
+  <si>
+    <t>○ Backfill to be Select fill for material within 1.5m of pavement and General Fill below 1.5m deep.</t>
+  </si>
+  <si>
+    <t>○ Select backfill material to be a granular material with a maximum particle size of 50mm and a PI between 2 &amp; 12</t>
+  </si>
+  <si>
+    <t>UGL Key - W</t>
+  </si>
+  <si>
+    <t>SHL Key - W</t>
+  </si>
+  <si>
+    <t>Material Test Report</t>
+  </si>
+  <si>
+    <t>4.5 - Compaction - Backfill</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 1112 Earthworks [Cl 4.13]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Minimum relative compaction requirements for backfill against pits to be:</t>
+  </si>
+  <si>
+    <t>– 97% for select fill</t>
+  </si>
+  <si>
+    <t>– 92% for general fill</t>
+  </si>
+  <si>
+    <t>4.6 - Moisture Content</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 1352 Pipe Drainage [Cl 5.4]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Moisture Content for Backfill material to be within 60% to 95% OMC unless otherwise approved by Superintendent</t>
+  </si>
+  <si>
+    <t>5.1 - Survey Report</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0161 Quality [Cl 3.13]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - An as-built survey of the drainage system been completed to ensure all structures are within construction tolerances.</t>
+  </si>
+  <si>
+    <t>Plan: +/- 200mm</t>
+  </si>
+  <si>
+    <t>Level: +/- 20mm</t>
+  </si>
+  <si>
+    <t>Survey report</t>
+  </si>
+  <si>
+    <t>5.2 - Acceptance and closure of non-conforming items</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0161 Quality [Cl 3.8]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - NCRs to be opened for non-conforming items and closed prior to closing construction lot.</t>
   </si>
 </sst>
 </file>
@@ -321,7 +591,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -521,6 +791,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,7 +961,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -701,6 +977,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1057,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I182"/>
+  <dimension ref="A1:I267"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="B256" sqref="B256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,7 +1387,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -1117,24 +1399,24 @@
         <v>9</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1142,7 +1424,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1150,7 +1432,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1169,7 +1451,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1177,7 +1459,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1185,15 +1467,15 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1201,7 +1483,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1209,7 +1491,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1228,7 +1510,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1236,7 +1518,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1244,42 +1526,39 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>23</v>
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>16</v>
+      <c r="A20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>12</v>
+      <c r="A21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1287,15 +1566,18 @@
         <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>20</v>
+      <c r="A23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1303,50 +1585,47 @@
         <v>13</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B28" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1354,7 +1633,7 @@
         <v>13</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1362,22 +1641,25 @@
         <v>13</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>37</v>
+      <c r="A32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="4" t="s">
+      <c r="A33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1386,7 +1668,7 @@
         <v>13</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1394,18 +1676,15 @@
         <v>13</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>12</v>
+      <c r="A36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1413,7 +1692,7 @@
         <v>13</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1421,7 +1700,7 @@
         <v>13</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1429,15 +1708,18 @@
         <v>13</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>27</v>
+      <c r="A40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1445,7 +1727,7 @@
         <v>13</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1453,34 +1735,31 @@
         <v>13</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>12</v>
+      <c r="A43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>19</v>
+      <c r="A44" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>20</v>
+      <c r="A45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1488,23 +1767,26 @@
         <v>13</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>28</v>
+      <c r="A47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>15</v>
+      <c r="A48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1512,18 +1794,15 @@
         <v>13</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>12</v>
+      <c r="A50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1531,7 +1810,7 @@
         <v>13</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1539,23 +1818,23 @@
         <v>13</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1563,7 +1842,7 @@
         <v>13</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1571,26 +1850,26 @@
         <v>13</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B58" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C58" s="5" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1598,7 +1877,7 @@
         <v>13</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1606,31 +1885,31 @@
         <v>13</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>15</v>
+      <c r="B63" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1638,18 +1917,15 @@
         <v>13</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>12</v>
+      <c r="A65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1657,15 +1933,18 @@
         <v>13</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>20</v>
+      <c r="A67" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1673,15 +1952,15 @@
         <v>13</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>34</v>
+      <c r="A69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1689,26 +1968,23 @@
         <v>13</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>16</v>
+      <c r="B71" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>12</v>
+      <c r="A72" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1716,7 +1992,7 @@
         <v>13</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1724,7 +2000,7 @@
         <v>13</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1732,15 +2008,15 @@
         <v>13</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>33</v>
+      <c r="A76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1748,26 +2024,26 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>16</v>
+      <c r="A78" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>12</v>
+      <c r="A79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1775,7 +2051,7 @@
         <v>13</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1783,7 +2059,7 @@
         <v>13</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1791,42 +2067,39 @@
         <v>13</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>32</v>
+      <c r="A83" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>15</v>
+      <c r="A84" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>16</v>
+      <c r="A85" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>12</v>
+      <c r="A86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1834,7 +2107,7 @@
         <v>13</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1842,7 +2115,7 @@
         <v>13</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1850,23 +2123,26 @@
         <v>13</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>31</v>
+      <c r="A90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>15</v>
+      <c r="A91" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1874,18 +2150,15 @@
         <v>13</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>12</v>
+      <c r="A93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1893,7 +2166,7 @@
         <v>13</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1901,31 +2174,31 @@
         <v>13</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>41</v>
+      <c r="A97" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>15</v>
+      <c r="A98" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -1933,18 +2206,15 @@
         <v>13</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>12</v>
+      <c r="A100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -1952,7 +2222,7 @@
         <v>13</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -1960,7 +2230,7 @@
         <v>13</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -1968,15 +2238,18 @@
         <v>13</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>42</v>
+      <c r="A104" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -1984,7 +2257,7 @@
         <v>13</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -1992,18 +2265,15 @@
         <v>13</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>12</v>
+      <c r="A107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -2011,31 +2281,31 @@
         <v>13</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>37</v>
+      <c r="A110" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -2043,7 +2313,7 @@
         <v>13</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -2051,18 +2321,15 @@
         <v>13</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>12</v>
+      <c r="A114" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2070,7 +2337,7 @@
         <v>13</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -2078,23 +2345,26 @@
         <v>13</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>37</v>
+      <c r="A117" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>44</v>
+      <c r="A118" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -2102,7 +2372,7 @@
         <v>13</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -2110,66 +2380,66 @@
         <v>13</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>12</v>
+      <c r="A121" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>20</v>
+      <c r="A123" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>37</v>
+      <c r="A124" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>45</v>
+      <c r="A125" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>35</v>
+      <c r="A126" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>15</v>
+      <c r="A127" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -2177,152 +2447,146 @@
         <v>13</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B145" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="C145" s="5" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -2330,15 +2594,15 @@
         <v>13</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>47</v>
+      <c r="A147" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -2346,7 +2610,7 @@
         <v>13</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -2354,34 +2618,31 @@
         <v>13</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>12</v>
+      <c r="A150" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>19</v>
+      <c r="A151" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>20</v>
+      <c r="B152" s="7" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -2389,15 +2650,15 @@
         <v>13</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>48</v>
+      <c r="A154" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -2405,26 +2666,26 @@
         <v>13</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>16</v>
+      <c r="A156" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>12</v>
+      <c r="A157" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -2432,7 +2693,7 @@
         <v>13</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -2440,7 +2701,7 @@
         <v>13</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -2448,168 +2709,162 @@
         <v>13</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B165" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B172" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>52</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B177" s="1" t="s">
-        <v>15</v>
+      <c r="B177" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>16</v>
+      <c r="A178" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>12</v>
+      <c r="A179" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -2617,7 +2872,7 @@
         <v>13</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -2625,7 +2880,7 @@
         <v>13</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -2633,7 +2888,714 @@
         <v>13</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
